--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -638,17 +643,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>-8.66</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9638.0</t>
+          <t>20826.357</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,172 +663,177 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>-10.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>74.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>32.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>13022</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-3.09</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>282.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2061253.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>大江</t>
+          <t>3887082910.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>海華</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>17148</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>大江-生技醫療業-上櫃</t>
+          <t>無線通訊模組79.55%、數位影像模組18.75%、其他1.70% (2023年)</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>生技醫療業右下</t>
+          <t>海華-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2658.123</t>
+          <t>42655.484</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,172 +865,177 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>52.70</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>12.5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>219</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>18755</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-3.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>398.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-1.59</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>-0.4</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>90861189.0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>華凌</t>
+          <t>-910150191.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>新光金</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>177.19</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>STN顯示器模組47.04%、TFT顯示器模組28.75%、OLED顯示器面板及模組23.00%、其他1.22% (2023年)</t>
+          <t>220520</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>華凌-光電業-上市</t>
+          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>新光金-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6257</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16716.897</t>
+          <t>23231.228</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>74.40</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>79.4</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20697</t>
+          <t>112</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>15760</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>715784146.0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>矽格</t>
+          <t>659508828.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>61.24</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>39681</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>測試81.97%、封裝17.41%、其他0.62% (2023年)</t>
+          <t>587402</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>矽格-半導體業-上市</t>
+          <t>淨利息收益46.64%、公平價值變動之金融資產與金31.13%、手續費及佣金14.70%、透過其他綜合損益按公允價值3.54%、兌換損益3.27%、其他利息以外淨收益1.73%、投資性不動產0.03% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>兆豐金-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5871</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10459.567</t>
+          <t>14299.147</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9795</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>19155</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>21</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>-2.18</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2024-12-24</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>1065673810.0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>中租-KY</t>
+          <t>192500956.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>38.06</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>214766</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>融資租賃利息收入30.55%、分期付款利息21.45%、其他利息13.05%、放款利息11.56%、其他9.44%、商品銷售7.57%、租賃6.37% (2023年)</t>
+          <t>58787</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>中租-KY-其他-上市</t>
+          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>其他右下</t>
+          <t>遠東銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-4.45</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40027.0</t>
+          <t>30186.265</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,172 +1471,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-6.19</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26.32</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>49725</t>
+          <t>220</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>17547</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>103.0</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-8974076.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>高鋒</t>
+          <t>793119481.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>55.87</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>6275</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
+          <t>111479</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>高鋒-電機機械-上櫃</t>
+          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>台中銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>50356.309</t>
+          <t>31380.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-5.51</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>43.11</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>47.15</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>28995</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>270.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>92</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>-2709796047.0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>1617494.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>14480</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>48436.359</t>
+          <t>23857.264</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,57 +1875,57 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>55506</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>49063</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1900,112 +1935,117 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1397834548.0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>3598187773.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>慧洋-KY</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>804433</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>淨利息收益96.70%、公平價值變動之金融資產與金29.23%、手續費及佣金20.94%、透過其他綜合損益按公允價值5.63%、外匯價格變動準備淨變動4.56%、其他利息以外淨收益1.32%、投資性不動產1.23%、兌換損益1.08%、權益法投資收益-關聯和合營公0.43%、除列按攤銷後成本衡量金融資0.19% (2023年)</t>
+          <t>63072</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>中信金-金融保險-上市</t>
+          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>慧洋-KY-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2017,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-3.28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23231.228</t>
+          <t>23266.248</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,172 +2077,177 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>187</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>22338</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>32307</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-0.50</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>84</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>659508828.0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>3071187801.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>裕民</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>588885</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>淨利息收益46.64%、公平價值變動之金融資產與金31.13%、手續費及佣金14.70%、透過其他綜合損益按公允價值3.54%、兌換損益3.27%、其他利息以外淨收益1.73%、投資性不動產0.03% (2023年)</t>
+          <t>62365</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>兆豐金-金融保險-上市</t>
+          <t>運費98.18%、其他1.82% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>裕民-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>48011.46</t>
+          <t>87388.286</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2234,172 +2279,177 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>18.3</t>
+          <t>53.88</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>49530</t>
+          <t>115</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>29081</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-5.83</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>38</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>-2.08</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2449379369.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>凱基金</t>
+          <t>5944056814.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>昆盈</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>305907</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>淨利息收益185.30%、公平價值變動之金融資產與金107.71%、手續費及佣金9.85%、權益法投資收益-關聯和合營公5.38%、兌換損益4.60%、透過其他綜合損益按公允價值3.65%、外匯價格變動準備淨變動2.83%、其他1.93%、投資不動產1.65%、除列按攤銷後成本衡量金融資0.69% (2023年)</t>
+          <t>10633</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>凱基金-金融保險-上市</t>
+          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>昆盈-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2411,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14299.147</t>
+          <t>6439.307</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2431,172 +2481,177 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>35.7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>8051</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>7916</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>21.0</t>
-        </is>
-      </c>
       <c r="W11" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>192500956.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>244488401.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>26.08</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>60069</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
+          <t>71508</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
     </row>
@@ -2608,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>30186.265</t>
+          <t>45947.271</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2628,172 +2683,177 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>60.85</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>282</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>25267</t>
+          <t>241</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>45456</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>48</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>793119481.0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>2103012586.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>13.57</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>112307</t>
+          <t>34.72</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
+          <t>24544</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>廣宇-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -2805,17 +2865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>-3.85</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31380.0</t>
+          <t>4578.003</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2825,172 +2885,177 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>22.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>32559</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>8146</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>270.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>92</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>1617494.0</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>126736097.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>新鋼</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>81.54</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>60.31</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>不�袗�板等100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>新鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
     </row>
@@ -3002,17 +3067,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23857.264</t>
+          <t>77384.598</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3022,172 +3087,177 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>43769</t>
+          <t>489</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>59777</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3598187773.0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>-385559325.0</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>185.38</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>64564</t>
+          <t>60.31</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
+          <t>379210</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
         </is>
       </c>
     </row>
@@ -3199,17 +3269,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>-3.06</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87388.286</t>
+          <t>16852.157</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3219,172 +3289,177 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>53.88</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>44.70</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30235</t>
+          <t>149</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>27139</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-1.34</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>5944056814.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>昆盈</t>
+          <t>-1750877149.0</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>台化</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>14.86</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>110.93</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>10633</t>
+          <t>57.91</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
+          <t>175543</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
+          <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>台化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3471,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-0.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6439.307</t>
+          <t>14018.592</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3416,960 +3491,177 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>15604</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>17</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>244488401.0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>-170036549.0</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>中石化</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>25.94</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>70448</t>
+          <t>57.91</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>31414</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2328</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>45947.271</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>60.85</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>45.35</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>75504</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2103012586.0</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>廣宇</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>11.6</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>23.78</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>34.56</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>24777</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>廣宇-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-1.48</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>77384.598</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>30.48</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>53254</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>-1.69</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>-385559325.0</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>中鋼</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>鋼鐵工業</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>181.54</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>56.76</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>371343</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>中鋼-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>鋼鐵工業右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>18289.961</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>35.80</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>9486</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>-0.92</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>653748940.0</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>154985</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1101</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>29317.359</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>51.15</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>32793</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>43.0</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-1.16</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>-974262715.0</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>29.08</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>22.55</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>261271</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>水泥工業平</t>
+          <t>中石化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -643,17 +643,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>8436</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-8.66</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20826.357</t>
+          <t>9638.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -663,97 +663,97 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-10.03</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6232</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>32.76</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>5711</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>282.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -763,77 +763,77 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>3887082910.0</t>
+          <t>2061253.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>海華</t>
+          <t>大江</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>16.63</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>25.72</t>
+          <t>19.93</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>17917</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>無線通訊模組79.55%、數位影像模組18.75%、其他1.70% (2023年)</t>
+          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>海華-通信網路業-上市</t>
+          <t>大江-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
     </row>
@@ -845,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42655.484</t>
+          <t>3052.743</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,22 +865,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>37.25</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -890,17 +890,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>134</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18755</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -910,52 +910,52 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -965,32 +965,32 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-910150191.0</t>
+          <t>661496481.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>新光金</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1000,42 +1000,42 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>220520</t>
+          <t>9041</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>新光金-金融保險-上市</t>
+          <t>全科-電子通路業-上市</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23231.228</t>
+          <t>42655.484</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,22 +1067,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1092,72 +1092,72 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>395</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15760</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-27.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1167,27 +1167,27 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>659508828.0</t>
+          <t>-910150191.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>新光金</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1202,37 +1202,37 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>16.92</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>587402</t>
+          <t>222292</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>淨利息收益46.64%、公平價值變動之金融資產與金31.13%、手續費及佣金14.70%、透過其他綜合損益按公允價值3.54%、兌換損益3.27%、其他利息以外淨收益1.73%、投資性不動產0.03% (2023年)</t>
+          <t>利息淨收益278.40%、兌換損益260.23%、採用覆蓋法重分類損益23.02%、投資性不動產18.15%、透過其他綜合損益按公允價值15.47%、手續費及佣金6.49%、其他3.09%、資產減損迴轉利益(減損損失)1.56% (2024年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>兆豐金-金融保險-上市</t>
+          <t>新光金-金融保險-上市</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14299.147</t>
+          <t>23231.228</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>40.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1294,72 +1294,72 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>585</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19155</t>
+          <t>9472</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1369,27 +1369,27 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>192500956.0</t>
+          <t>659508828.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1404,42 +1404,42 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>58787</t>
+          <t>588143</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
+          <t>淨利息收益46.64%、公平價值變動之金融資產與金31.13%、手續費及佣金14.70%、透過其他綜合損益按公允價值3.54%、兌換損益3.27%、其他利息以外淨收益1.73%、投資性不動產0.03% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>兆豐金-金融保險-上市</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30186.265</t>
+          <t>14299.147</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>17547</t>
+          <t>5089</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1531,37 +1531,37 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1571,27 +1571,27 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>793119481.0</t>
+          <t>192500956.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>遠東銀</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1606,42 +1606,42 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>111479</t>
+          <t>58787</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>淨利息收益64.72%、手續費22.50%、公平價值變動之金融資產與金5.97%、兌換損益4.45%、透過其他綜合損益按公允價值2.15%、其他利息以外淨收益0.21% (2023年)</t>
+          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>遠東銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31380.0</t>
+          <t>30186.265</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,22 +1673,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1698,72 +1698,72 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>70</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>24135</t>
+          <t>7444</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>270.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1773,77 +1773,77 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>1617494.0</t>
+          <t>793119481.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>112031</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23857.264</t>
+          <t>31380.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,172 +1875,172 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>16609</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-2.34</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-1.5</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>1617494.0</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>正德</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
           <t>29.32</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>49063</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-2.22</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>3598187773.0</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>慧洋-KY</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>10.46</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>20.38</t>
-        </is>
-      </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>63072</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>正德-航運業-上櫃</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-3.77</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23266.248</t>
+          <t>23857.264</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2102,72 +2102,72 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>146</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>22228</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-2.26</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>0.45</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-3.38</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2182,22 +2182,22 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3071187801.0</t>
+          <t>3598187773.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>裕民</t>
+          <t>慧洋-KY</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2212,37 +2212,37 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>62365</t>
+          <t>62474</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>運費98.18%、其他1.82% (2023年)</t>
+          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>裕民-航運業-上市</t>
+          <t>慧洋-KY-航運業-上市</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>-3.28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87388.286</t>
+          <t>23266.248</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>53.88</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2304,72 +2304,72 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>29081</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-5.83</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2379,32 +2379,32 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>5944056814.0</t>
+          <t>3071187801.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>昆盈</t>
+          <t>裕民</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2414,42 +2414,42 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>20.24</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>10633</t>
+          <t>61097</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
+          <t>運費98.18%、其他1.82% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
+          <t>裕民-航運業-上市</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6439.307</t>
+          <t>87388.286</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>53.88</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2506,72 +2506,72 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7916</t>
+          <t>11047</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-4.64</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2581,27 +2581,27 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>244488401.0</t>
+          <t>5944056814.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>昆盈</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2616,42 +2616,42 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>71508</t>
+          <t>10268</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>昆盈-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>45947.271</t>
+          <t>6439.307</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2683,22 +2683,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>60.85</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2708,72 +2708,72 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>308</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>45456</t>
+          <t>26588</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-1.68</t>
+          <t>-5.97</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>-3.93</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2783,32 +2783,32 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2103012586.0</t>
+          <t>244488401.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2818,42 +2818,42 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>30.67</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>34.72</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>24544</t>
+          <t>66208</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-3.85</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4578.003</t>
+          <t>45947.271</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2885,22 +2885,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>60.85</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20.65</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2910,72 +2910,72 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>139</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>39268</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2985,32 +2985,32 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>126736097.0</t>
+          <t>2103012586.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>新鋼</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -3020,42 +3020,42 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>23.36</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>24336</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>不�袗�板等100.00% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>新鋼-鋼鐵工業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -3112,12 +3112,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>452</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>59777</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3172,34 +3172,34 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>-385559325.0</t>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3232,17 +3232,17 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>185.38</t>
+          <t>186.54</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>379210</t>
+          <t>381570</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>27139</t>
+          <t>19590</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3374,34 +3374,34 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>-1750877149.0</t>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3434,17 +3434,17 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>110.93</t>
+          <t>108.33</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>57.91</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>175543</t>
+          <t>171440</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>11046</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -3576,34 +3576,34 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>-170036549.0</t>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>25.94</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>57.91</t>
+          <t>57.54</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>31414</t>
+          <t>30998</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">

--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>
@@ -643,17 +658,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>6916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9638.0</t>
+          <t>2658.123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -663,177 +678,192 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>74.01</t>
+          <t>27.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>84.8</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>80</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>9724</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-11.94</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>282.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>398.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2061253.0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>大江</t>
+          <t>90861189.0</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>華凌</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>19.93</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>188.44</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>17917</t>
+          <t>61.79</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>保健食品42.10%、機能性飲品39.06%、其他11.45%、美容保養品7.39% (2023年)</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>大江-生技醫療業-上櫃</t>
+          <t>STN顯示器模組47.04%、TFT顯示器模組28.75%、OLED顯示器面板及模組23.00%、其他1.22% (2023年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>華凌-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>短增右上</t>
         </is>
       </c>
     </row>
@@ -845,17 +875,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-3.84</t>
+          <t>-8.66</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3052.743</t>
+          <t>20826.357</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -865,177 +895,192 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>-10.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>32.76</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>24.8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>63.8</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>-5.89</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>-7.41</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>661496481.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>全科</t>
+          <t>3887082910.0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>海華</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>9041</t>
+          <t>45.59</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
+          <t>9062</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>全科-電子通路業-上市</t>
+          <t>無線通訊模組79.55%、數位影像模組18.75%、其他1.70% (2023年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>海華-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1092,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-3.84</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42655.484</t>
+          <t>3052.743</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1067,177 +1112,192 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>-2.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>395</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>51365</t>
+          <t>36</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5432</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-2.37</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>0.40</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-27.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-910150191.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>新光金</t>
+          <t>661496481.0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>電子通路業</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>12.86</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>222292</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>利息淨收益278.40%、兌換損益260.23%、採用覆蓋法重分類損益23.02%、投資性不動產18.15%、透過其他綜合損益按公允價值15.47%、手續費及佣金6.49%、其他3.09%、資產減損迴轉利益(減損損失)1.56% (2024年)</t>
+          <t>8832</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>新光金-金融保險-上市</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>全科-電子通路業-上市</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>電子通路業平</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1249,17 +1309,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2845</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23231.228</t>
+          <t>14299.147</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1269,57 +1329,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.53</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>40.15</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9472</t>
+          <t>121</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>6975</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1329,92 +1389,92 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>659508828.0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>192500956.0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>遠東銀</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1424,22 +1484,37 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>588143</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>淨利息收益46.64%、公平價值變動之金融資產與金31.13%、手續費及佣金14.70%、透過其他綜合損益按公允價值3.54%、兌換損益3.27%、其他利息以外淨收益1.73%、投資性不動產0.03% (2023年)</t>
+          <t>58359</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>兆豐金-金融保險-上市</t>
+          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>遠東銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1526,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2845</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14299.147</t>
+          <t>30186.265</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,177 +1546,192 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.05</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>129</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>9834</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>192500956.0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>遠東銀</t>
+          <t>793119481.0</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>台中銀</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>金融保險</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>5.45</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>13.75</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>58787</t>
+          <t>13.6</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>淨利息收益50.85%、公平價值變動之金融資產與金20.95%、手續費20.63%、其他利息以外淨收益2.21%、外幣匯兌收益1.67%、廉價購買收益1.51%、透過其他綜合損益按公允價值1.42%、採權益法認列之投資收益0.77% (2023年)</t>
+          <t>113410</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>遠東銀-金融保險-上市</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>台中銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1743,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30186.265</t>
+          <t>31380.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,177 +1763,192 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>46.85</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>7444</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>16465</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-2.55</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>270.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>793119481.0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>1617494.0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>13.65</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>112031</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>7309</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1960,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>-3.28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31380.0</t>
+          <t>23266.248</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,177 +1980,192 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>46.85</t>
+          <t>26.36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16609</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>30263</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-2.34</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>270.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1617494.0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>3071187801.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>裕民</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>61182</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>運費98.18%、其他1.82% (2023年)</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
+          <t>裕民-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
           <t>航運業右上</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>45.64</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -2057,17 +2177,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.77</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23857.264</t>
+          <t>87388.286</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2077,7 +2197,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2087,167 +2207,182 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>53.88</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>22228</t>
+          <t>45</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5908</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-3.53</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>266.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>-8.17</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3598187773.0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>5944056814.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>昆盈</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>62474</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
+          <t>10035</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>昆盈-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>短增右上</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2394,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23266.248</t>
+          <t>6439.307</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,177 +2414,192 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>26.36</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>35.7</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>136</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>10052</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>-6.25</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3071187801.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>裕民</t>
+          <t>244488401.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>13.17</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>20.24</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>61097</t>
+          <t>70.87</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>運費98.18%、其他1.82% (2023年)</t>
+          <t>64762</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>裕民-航運業-上市</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右下</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2611,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87388.286</t>
+          <t>45947.271</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2481,177 +2631,192 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20.2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>45.35</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>60894</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-8.99</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>53.88</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>11047</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-4.64</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>14.78</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>266.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>5944056814.0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>昆盈</t>
+          <t>2103012586.0</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>11.6</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>72.01</t>
+          <t>22.69</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>10268</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>電腦周邊產品62.84%、影像光電34.98%、消費性電子產品1.64%、其他0.53% (2023年)</t>
+          <t>23637</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>昆盈-電腦及週邊設備業-上市</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>廣宇-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2828,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6439.307</t>
+          <t>77384.598</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2683,52 +2848,52 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.66</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>26588</t>
+          <t>227</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>35985</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-5.97</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2743,117 +2908,132 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>244488401.0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>-385559325.0</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>30.67</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>72.01</t>
+          <t>186.54</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>66208</t>
+          <t>60.13</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>381570</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -2865,17 +3045,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45947.271</t>
+          <t>10832.268</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2885,177 +3065,192 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>60.85</t>
+          <t>48.31</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>39268</t>
+          <t>67</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>15810</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2103012586.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>-219943519.0</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>東聯</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
+          <t>化學工業</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>32.05</t>
+          <t>867.5</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>24336</t>
+          <t>62.38</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>15367</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>乙二醇(EG)63.26%、特用化學品28.83%、氣體7.90% (2023年)</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>東聯-化學工業-上市</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>化學工業右下</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>
@@ -3067,17 +3262,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>77384.598</t>
+          <t>18289.961</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3087,581 +3282,192 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>35.80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>74808</t>
+          <t>27</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>5917</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2025-03-08</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>-385559325.0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>653748940.0</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>186.54</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>60.52</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>381570</t>
+          <t>22.59</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>156049</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>鋼鐵工業平</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1326</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-3.06</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16852.157</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-2.78</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>44.70</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>28.8</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>19590</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>-1.88</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>-1750877149.0</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>台化</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>108.33</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>57.54</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>171440</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>台化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14018.592</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>11046</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-1.83</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>-1.47</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>-170036549.0</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>中石化</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>塑膠工業</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>25.59</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>57.54</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>30998</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>丙烯(月青),己內醯胺,尼龍粒100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>中石化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
+          <t>亞泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>水泥工業右上</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>50.12</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>短增右下</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,11 @@
           <t>短增level</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -693,7 +698,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14.90</t>
+          <t>15.76</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -713,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>2842</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -738,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -768,7 +773,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -798,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -828,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -838,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.51</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.17</t>
+          <t>35.58</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28346</t>
+          <t>28819</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -874,6 +879,11 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -935,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1211</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -960,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1020,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1050,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1060,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>89.52</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18212</t>
+          <t>18803</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1096,6 +1106,11 @@
       <c r="AR3" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6916</t>
+          <t>6278</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2658.123</t>
+          <t>1052.599</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1127,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>27.34</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1147,7 +1162,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28.8</t>
+          <t>109.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1157,72 +1172,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-6.86</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>398.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1232,32 +1247,32 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>90861189.0</t>
+          <t>-144116285.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>華凌</t>
+          <t>台表科</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1272,52 +1287,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>40.52</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>57.34</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1819</t>
+          <t>34064</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>STN顯示器模組47.04%、TFT顯示器模組28.75%、OLED顯示器面板及模組23.00%、其他1.22% (2023年)</t>
+          <t>製造92.34%、其他7.66% (2023年)</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>華凌-光電業-上市</t>
+          <t>台表科-光電業-上市</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>77.24</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1329,107 +1349,107 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>-1.84</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>38.7</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>-4.39</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1439,17 +1459,17 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1459,32 +1479,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-385.0</t>
+          <t>1127.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>台生材</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1494,52 +1514,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>38.19</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>腦中風血栓負壓移除導管系統67.60%、委託開發29.12%、泡沫式人工腦膜產品2.35%、醫療器材產品試製服務0.93% (2023年)</t>
+          <t>C電子產品99.05%、其他商品及勞務0.68%、室內兒童樂園0.28% (2023年)</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>台生材-生技醫療業-上櫃</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3028</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2447.0</t>
+          <t>503.104</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1571,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>367.0</t>
+          <t>32.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1601,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>654</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>6.08</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>165.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1676,92 +1701,97 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-3686704.0</t>
+          <t>75008803.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>增你強</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>34.18</t>
+          <t>36.54</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>185986</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>半導體晶片97.35%、半導體晶錠產品1.80%、其他0.68%、電費0.16% (2023年)</t>
+          <t>線性積體電路20.08%、記憶卡18.78%、模組及其他15.96%、邏輯及特定應用積體電路14.89%、功率場效應電晶體13.60%、數位積體電路10.70%、二極體3.79%、電晶體1.28%、被動元件0.92% (2023年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>環球晶-半導體業-上櫃</t>
+          <t>增你強-電子通路業-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>190.4</t>
+          <t>26.29</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1773,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1052.599</t>
+          <t>995.876</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1793,142 +1823,142 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1566</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>109.5</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2189</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-2.62</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>-13.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-144116285.0</t>
+          <t>11105904.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>台表科</t>
+          <t>中再保</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -1938,52 +1968,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>40.52</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>11.52</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>33480</t>
+          <t>22651</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>製造92.34%、其他7.66% (2023年)</t>
+          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>台表科-光電業-上市</t>
+          <t>中再保-金融保險-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>26.12</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1995,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1914.905</t>
+          <t>3594.869</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2015,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>20.70</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>928.0</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2045,32 +2080,32 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-4.58</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2080,37 +2115,37 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2120,37 +2155,37 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>3507871549.0</t>
+          <t>60917448.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>材料-KY</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>化學工業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2160,52 +2195,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>11.14</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>67.7</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>92880</t>
+          <t>68851</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>二醋酸纖維絲束84.87%、二醋酸纖維素14.51%、醋酸酐0.62% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>材料-KY-化學工業-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>化學工業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>138.32</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2217,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>564.821</t>
+          <t>379.274</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2237,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2267,74 +2307,74 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>663</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-0.72</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>False</t>
@@ -2347,32 +2387,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>11155548.0</t>
+          <t>5117698.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>特力</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2382,52 +2422,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>17.4</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>13.4</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>10555</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>貿易代理53.12%、零售-台灣39.52%、其他7.36% (2023年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>特力-貿易百貨-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>貿易百貨右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>13.74</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2439,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>995.876</t>
+          <t>705.453</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2459,27 +2504,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>30.35</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2489,57 +2534,57 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -2549,12 +2594,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2564,37 +2609,37 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>11105904.0</t>
+          <t>-72191580.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2604,52 +2649,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>34522</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2661,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>379.274</t>
+          <t>2445.216</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2681,27 +2731,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2711,167 +2761,172 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>42.02</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>22454</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>-159021917.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>5117698.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>台產</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>10.26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>11934</t>
+          <t>5460</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>705.453</t>
+          <t>36049.311</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2903,27 +2958,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>30.35</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2933,72 +2988,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>106</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>24835</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3013,32 +3068,32 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>-14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-72191580.0</t>
+          <t>749592327.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>友達</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3048,52 +3103,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>34255</t>
+          <t>117702</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>友達-光電業-上市</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3105,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2445.216</t>
+          <t>45947.271</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3125,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3155,57 +3215,57 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>29.21</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>216</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10226</t>
+          <t>54384</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -3215,12 +3275,12 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3235,32 +3295,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-159021917.0</t>
+          <t>2103012586.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3270,52 +3330,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>32.73</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>28561</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3327,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>36049.311</t>
+          <t>548.059</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3347,27 +3412,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>35.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3377,72 +3442,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>33717</t>
+          <t>542</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3457,32 +3522,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>749592327.0</t>
+          <t>-7823568.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>盛餘</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3492,52 +3557,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>42.97</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>118085</t>
+          <t>8784</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>友達-光電業-上市</t>
+          <t>盛餘-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>31.79</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3549,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45947.271</t>
+          <t>1161.722</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3569,27 +3639,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3599,67 +3669,67 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>88104</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-7.12</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3679,12 +3749,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3694,17 +3764,17 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>2103012586.0</t>
+          <t>-55785596.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3714,52 +3784,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>32.38</t>
+          <t>42.97</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>27628</t>
+          <t>13730</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3771,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>53313.266</t>
+          <t>6841.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3791,142 +3866,142 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21.48</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>29.5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>43.6</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>44408</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>-11.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>2267826162.0</t>
+          <t>283513882.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>強盛新</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -3936,52 +4011,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>184.7</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>553928</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>晶圓製造整合100.00% (2023年)</t>
+          <t>染整加工102.59% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>聯電-半導體業-上市</t>
+          <t>強盛新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -3993,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>548.059</t>
+          <t>88.383</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4013,17 +4093,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>35.54</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4033,7 +4113,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4043,72 +4123,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>-0.66</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4118,37 +4198,37 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-7823568.0</t>
+          <t>-580824.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4158,52 +4238,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>8913</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4215,17 +4300,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1161.722</t>
+          <t>1359.371</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4235,142 +4320,142 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>27.52</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3216</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-55785596.0</t>
+          <t>6723248.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>福懋</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4380,52 +4465,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>13406</t>
+          <t>33272</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>福懋-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4437,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2234.099</t>
+          <t>265.693</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4457,142 +4547,142 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16.44</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>75.2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>2920</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-0.52</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>216410846.0</t>
+          <t>-1442490.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>東和鋼鐵</t>
+          <t>泰山</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4602,52 +4692,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>12.49</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>56007</t>
+          <t>10825</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>鋼筋53.54%、型鋼22.88%、建造合同22.33%、其他1.25%、鋼胚0.01% (2024年)</t>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>東和鋼鐵-鋼鐵工業-上市</t>
+          <t>泰山-食品工業-上市</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
           <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4659,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>745.0</t>
+          <t>18289.961</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4679,17 +4774,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>27.80</t>
+          <t>35.80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4699,7 +4794,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>69.6</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4709,72 +4804,72 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.42</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>63</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>11420</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-4.88</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -4784,87 +4879,87 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>17762.0</t>
+          <t>653748940.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>易威</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>90.5</t>
+          <t>20.35</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>9463</t>
+          <t>161369</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>學名藥60.18%、藥物開發39.82% (2023年)</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>易威-生技醫療業-上櫃</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -4872,1558 +4967,9 @@
           <t>短增右下</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1736</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2979.627</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>51.36</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>187.0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>959</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-3.90</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-13.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>944538663.0</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>喬山</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>運動休閒</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>57.29</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>23.97</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>18.8</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>58252</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>電動跑步機41.46%、重量訓練器33.23%、橢圓機6.85%、踏步機5.64%、其他5.26%、健身車4.95%、斜躺式健身車1.81%、划船機0.82% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>喬山-運動休閒-上市</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>運動休閒右上</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>39.69</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1563</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1297.353</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>16.45</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>663</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-1.44</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>134113194.0</t>
-        </is>
-      </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>巧新</t>
-        </is>
-      </c>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI22" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>8.16</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>21.69</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>45.96</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>16502</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>鍛造鋁圈86.39%、其他14.85% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>巧新-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>汽車工業右上</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>41.55</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1463</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6841.64</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>99.99</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>29.5</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>6567</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>10.35</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>478.0</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>76.0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>283513882.0</t>
-        </is>
-      </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>強盛新</t>
-        </is>
-      </c>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI23" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>63.98</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>5389</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>染整加工102.59% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>強盛新-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1451</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>88.383</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>1326</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>-580824.0</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>年興</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>18.14</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>63.98</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>年興-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>紡織纖維右上</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>34.75</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1434</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1359.371</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>27.52</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>1039</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>6723248.0</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>福懋</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>21.97</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>63.98</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>32935</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>福懋-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>265.693</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>906</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>-0.71</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>-1442490.0</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>13.82</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>10575</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>食品工業右下</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>18289.961</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>35.80</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>4374</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>653748940.0</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>157113</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>50.12</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>短增右下</t>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS20"/>
+  <dimension ref="A1:AS17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>164</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2842</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -843,17 +843,17 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.81</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>35.41</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>28819</t>
+          <t>28504</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1070,17 +1070,17 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>20.92</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>89.52</t>
+          <t>89.62</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>18803</t>
+          <t>18271</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-2.64</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1297,17 +1297,17 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>34064</t>
+          <t>33187</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>19.15</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>6350</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-4.39</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1524,17 +1524,17 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>38.19</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3028</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>503.104</t>
+          <t>3594.869</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>26.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>32.65</t>
+          <t>15.9</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1626,72 +1626,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>1532</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>165.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>18.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1706,32 +1706,32 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>75008803.0</t>
+          <t>60917448.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>增你強</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1741,47 +1741,47 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>36.54</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>8031</t>
+          <t>69054</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>線性積體電路20.08%、記憶卡18.78%、模組及其他15.96%、邏輯及特定應用積體電路14.89%、功率場效應電晶體13.60%、數位積體電路10.70%、二極體3.79%、電晶體1.28%、被動元件0.92% (2023年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>增你強-電子通路業-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>26.29</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
@@ -1803,17 +1803,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>995.876</t>
+          <t>379.274</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1823,27 +1823,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1853,32 +1853,32 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1888,37 +1888,37 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1933,27 +1933,27 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>11105904.0</t>
+          <t>5117698.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>中再保</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1968,37 +1968,37 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>22651</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>保險費91.49%、兌換損益5.47%、利息收入4.53%、透過損益按公允價值衡量之金3.31%、未滿期準備保費淨變動0.86%、再保佣金0.69%、其他營業收入0.23%、手續費0.08%、投資性不動產0.08% (2024年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>中再保-金融保險-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>26.12</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3594.869</t>
+          <t>705.453</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2050,27 +2050,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>15.9</t>
+          <t>30.35</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2080,72 +2080,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2155,37 +2155,37 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>60917448.0</t>
+          <t>-72191580.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2195,47 +2195,47 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>68851</t>
+          <t>34415</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
@@ -2257,17 +2257,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>379.274</t>
+          <t>2445.216</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2277,27 +2277,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>14.79</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2307,57 +2307,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>37186</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-5.06</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2367,102 +2367,102 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>-5.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>-159021917.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>5117698.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>台產</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>13.4</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>12605</t>
+          <t>5393</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
@@ -2484,17 +2484,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>705.453</t>
+          <t>36049.311</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2504,192 +2504,192 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>14.8</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>30.35</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>62175</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>749592327.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>友達</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1604</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>-72191580.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>榮運</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>12.44</t>
-        </is>
-      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>85.9</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>115402</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>友達-光電業-上市</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>19.99</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2445.216</t>
+          <t>45947.271</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2731,27 +2731,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>45.35</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2761,57 +2761,57 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>303</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>22454</t>
+          <t>50352</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>-8.91</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-5.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2841,32 +2841,32 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>-159021917.0</t>
+          <t>2103012586.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>廣宇</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -2876,47 +2876,47 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>32.66</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>26747</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>廣宇-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>27.55</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36049.311</t>
+          <t>1161.722</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2958,27 +2958,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2988,72 +2988,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>24835</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3063,37 +3063,37 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>749592327.0</t>
+          <t>-55785596.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>友達</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3103,47 +3103,47 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>42.14</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>117702</t>
+          <t>13601</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>友達-光電業-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>19.99</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
@@ -3165,17 +3165,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45947.271</t>
+          <t>6841.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3185,27 +3185,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>99.99</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>45.35</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3215,72 +3215,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>17.7</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>54384</t>
+          <t>2853</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>478.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3295,32 +3295,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>76</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2103012586.0</t>
+          <t>283513882.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>強盛新</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3330,47 +3330,47 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>32.73</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>28561</t>
+          <t>5198</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>染整加工102.59% (2023年)</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>強盛新-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>16.72</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-2.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>548.059</t>
+          <t>88.383</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>35.54</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3442,72 +3442,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-1.10</t>
+          <t>-4.05</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>-9.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3517,37 +3517,37 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-7823568.0</t>
+          <t>-580824.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>盛餘</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3557,47 +3557,47 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>8784</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>鍍鋅鋼捲49.76%、烤漆鋼捲47.73%、其他1.48%、客戶委託代工(OEM)1.02%、冷軋鋼捲0.02% (2023年)</t>
+          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>盛餘-鋼鐵工業-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>31.79</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-1.31</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1161.722</t>
+          <t>1359.371</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,117 +3639,117 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>27.52</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2332</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-55785596.0</t>
+          <t>6723248.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>福懋</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3784,47 +3784,47 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>42.97</t>
+          <t>63.99</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>13730</t>
+          <t>32177</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>福懋-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6841.64</t>
+          <t>265.693</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>20.1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3896,72 +3896,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>865</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-1.01</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>478.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3976,32 +3976,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>283513882.0</t>
+          <t>-1442490.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>強盛新</t>
+          <t>泰山</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>食品工業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4011,47 +4011,47 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>14.05</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>19.12</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>10750</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>染整加工102.59% (2023年)</t>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>強盛新-紡織纖維-上市</t>
+          <t>泰山-食品工業-上市</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>食品工業平</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>16.72</t>
+          <t>26.34</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -4073,162 +4073,162 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18289.961</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>35.80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>88.383</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>13639</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>2166</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-0.66</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-9.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-22</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-580824.0</t>
+          <t>653748940.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>年興</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4238,47 +4238,47 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>12.42</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>64.57</t>
+          <t>20.29</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>159950</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
+          <t>水泥及熟料100.00% (2023年)</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>年興-紡織纖維-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -4287,687 +4287,6 @@
         </is>
       </c>
       <c r="AS17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1434</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1359.371</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>27.52</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>19.05</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>1008</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>29.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>6723248.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>福懋</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>22.19</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>64.57</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>33272</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>福懋-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1218</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>265.693</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>20.1</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>-1442490.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>泰山</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>食品工業</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>14.15</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>19.25</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>10825</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>泰山-食品工業-上市</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>食品工業平</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>26.34</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>18289.961</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>35.80</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>11420</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>653748940.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>161369</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>水泥及熟料100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>

--- a/Result/check3/2025-03-03.xlsx
+++ b/Result/check3/2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
